--- a/review/geolocalized_mining_datasets_review.xlsx
+++ b/review/geolocalized_mining_datasets_review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DCA74A8-6D91-48A2-80B0-DFE747F83C21}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583E559B-100A-4547-97C7-5F624DA210D4}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -599,14 +610,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -907,8 +917,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -949,7 +959,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
@@ -960,7 +970,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
@@ -971,7 +981,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
       <c r="B10" t="s">
@@ -982,7 +992,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
       <c r="B11" t="s">
@@ -993,7 +1003,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" t="s">
@@ -1004,7 +1014,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
@@ -1015,7 +1025,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -1034,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B65EBB4-67CA-4DAE-A69A-6BBCDBDA6055}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1062,10 +1072,10 @@
       <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1226,7 +1236,7 @@
       <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1246,7 +1256,7 @@
       <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1269,7 +1279,7 @@
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>77</v>
       </c>
     </row>

--- a/review/geolocalized_mining_datasets_review.xlsx
+++ b/review/geolocalized_mining_datasets_review.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1044,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B65EBB4-67CA-4DAE-A69A-6BBCDBDA6055}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/review/geolocalized_mining_datasets_review.xlsx
+++ b/review/geolocalized_mining_datasets_review.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polymtlca0-my.sharepoint.com/personal/marin_pellan_polymtlus_ca/Documents/Desktop/POST_DOC/Project/regionalized_lci_mineral/review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{583E559B-100A-4547-97C7-5F624DA210D4}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="11_F25DC773A252ABDACC104887411C794C5BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D130F83-6D22-471B-B51C-7C9B7849AD24}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="87">
   <si>
     <t>AUTHORS</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>5,097 ETM projects</t>
+  </si>
+  <si>
+    <t>DATA_TYPES</t>
   </si>
 </sst>
 </file>
@@ -1042,10 +1045,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B65EBB4-67CA-4DAE-A69A-6BBCDBDA6055}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,12 +1060,12 @@
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="141.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="116.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="38.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="141.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="116.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
@@ -1076,13 +1082,16 @@
         <v>51</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="216" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1098,14 +1107,14 @@
       <c r="E2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1121,14 +1130,14 @@
       <c r="E3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1144,14 +1153,14 @@
       <c r="E4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1167,11 +1176,11 @@
       <c r="E5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1187,14 +1196,14 @@
       <c r="E6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1210,14 +1219,14 @@
       <c r="E7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1233,14 +1242,14 @@
       <c r="E8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1256,11 +1265,11 @@
       <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1276,14 +1285,14 @@
       <c r="E10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1299,14 +1308,14 @@
       <c r="E11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1322,14 +1331,14 @@
       <c r="E12" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1345,14 +1354,14 @@
       <c r="E13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -1368,37 +1377,38 @@
       <c r="E14" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14"/>
+      <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{9B65EBB4-67CA-4DAE-A69A-6BBCDBDA6055}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G14">
+  <autoFilter ref="A1:H1" xr:uid="{9B65EBB4-67CA-4DAE-A69A-6BBCDBDA6055}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H14">
       <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{59C847CB-2634-460E-8134-03D813B65C31}"/>
-    <hyperlink ref="G4" r:id="rId2" xr:uid="{9637D843-6665-4CEE-9C15-1E901C1FE0C3}"/>
-    <hyperlink ref="G2" r:id="rId3" xr:uid="{68178002-B295-49E1-B5EC-3DC85E982B67}"/>
-    <hyperlink ref="G7" r:id="rId4" display="https://www.sciencedirect.com/science/article/pii/S0959652624030129?via%3Dihub" xr:uid="{05D8BAB6-65FD-432C-A7A2-50FBC84D65D0}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{59C847CB-2634-460E-8134-03D813B65C31}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{9637D843-6665-4CEE-9C15-1E901C1FE0C3}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{68178002-B295-49E1-B5EC-3DC85E982B67}"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://www.sciencedirect.com/science/article/pii/S0959652624030129?via%3Dihub" xr:uid="{05D8BAB6-65FD-432C-A7A2-50FBC84D65D0}"/>
     <hyperlink ref="A7" r:id="rId5" display="https://doi.org/10.1016/j.jclepro.2024.143563" xr:uid="{92FB4155-2581-4F80-8836-545D41BD22EC}"/>
     <hyperlink ref="A9" r:id="rId6" display="https://doi.org/10.1038/s43247-023-00805-6" xr:uid="{78544A3B-B0CE-45AC-81C4-EC37F35327A1}"/>
     <hyperlink ref="A10" r:id="rId7" display="https://doi.org/10.1038/s41597-023-01965-y" xr:uid="{521BB484-9A2E-4499-8AAE-EB34D51B3D8F}"/>
     <hyperlink ref="A5" r:id="rId8" display="https://doi.org/10.1038/s41597-024-03116-3" xr:uid="{6D328D49-D9B0-412E-BC9C-DA1148894C85}"/>
     <hyperlink ref="A8" r:id="rId9" display="https://doi.org/10.1038/s41597-022-01547-4" xr:uid="{FD2A4BC7-7343-4B87-856B-265CD6FB9EF5}"/>
-    <hyperlink ref="G12" r:id="rId10" xr:uid="{51AE2060-E758-4C86-BF91-7BB218A3E319}"/>
-    <hyperlink ref="G11" r:id="rId11" xr:uid="{558A23A0-9D23-40AB-9B9F-A31DD6D59DB3}"/>
-    <hyperlink ref="G13" r:id="rId12" xr:uid="{72A11CEE-F098-4F8E-8EC6-F8C398F42D36}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{51AE2060-E758-4C86-BF91-7BB218A3E319}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{558A23A0-9D23-40AB-9B9F-A31DD6D59DB3}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{72A11CEE-F098-4F8E-8EC6-F8C398F42D36}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://doi.org/10.1038/s41893-022-00994-6" xr:uid="{693819A7-AB6E-4DD3-8FAC-CE077E912207}"/>
-    <hyperlink ref="G14" r:id="rId14" xr:uid="{E5B064CE-F8EA-4885-86E4-CB3440709075}"/>
-    <hyperlink ref="G6" r:id="rId15" xr:uid="{3F2CB44A-6898-4232-AA2C-4C63F736BC10}"/>
-    <hyperlink ref="G10" r:id="rId16" xr:uid="{0CF84DCE-3673-4108-9A3D-353552970C29}"/>
-    <hyperlink ref="G8" r:id="rId17" xr:uid="{46FF56F5-FFA4-42F0-AE82-3EA1461E97EF}"/>
+    <hyperlink ref="H14" r:id="rId14" xr:uid="{E5B064CE-F8EA-4885-86E4-CB3440709075}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{3F2CB44A-6898-4232-AA2C-4C63F736BC10}"/>
+    <hyperlink ref="H10" r:id="rId16" xr:uid="{0CF84DCE-3673-4108-9A3D-353552970C29}"/>
+    <hyperlink ref="H8" r:id="rId17" xr:uid="{46FF56F5-FFA4-42F0-AE82-3EA1461E97EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
